--- a/Rational_Level_Design.xlsx
+++ b/Rational_Level_Design.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\etuln.stockage.univ-lorraine.fr\peters16u\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\JV\DISTANCE PROJECT\ExpressivePlatformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17732A-8024-4BA6-BBE4-40D90D4454ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LD" sheetId="1" r:id="rId1"/>
@@ -220,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1405,6 +1406,174 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,6 +1590,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1448,198 +1641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2357,14 +2358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2451,23 +2452,23 @@
       <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>7</v>
+      <c r="B3" s="86" t="s">
+        <v>56</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="61" t="s">
         <v>1</v>
       </c>
@@ -2477,21 +2478,21 @@
       <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="131"/>
+      <c r="B4" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="61" t="s">
         <v>1</v>
       </c>
@@ -2501,21 +2502,21 @@
       <c r="R4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="61" t="s">
         <v>1</v>
       </c>
@@ -2525,21 +2526,21 @@
       <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="61" t="s">
         <v>1</v>
       </c>
@@ -2549,21 +2550,21 @@
       <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="109" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="89" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="61" t="s">
@@ -2575,21 +2576,21 @@
       <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="132"/>
+      <c r="B8" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="109"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="61" t="s">
         <v>1</v>
       </c>
@@ -2662,125 +2663,125 @@
         <v>6</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="127" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
       <c r="N11" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="44"/>
-      <c r="P11" s="72"/>
+      <c r="P11" s="128"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="44"/>
-      <c r="P12" s="72"/>
+      <c r="P12" s="128"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="134"/>
+      <c r="B13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79" t="s">
         <v>55</v>
       </c>
       <c r="N13" s="61" t="s">
         <v>5</v>
       </c>
       <c r="O13" s="44"/>
-      <c r="P13" s="72"/>
+      <c r="P13" s="128"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90"/>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="134"/>
+      <c r="B14" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79" t="s">
         <v>51</v>
       </c>
       <c r="N14" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="44"/>
-      <c r="P14" s="72"/>
+      <c r="P14" s="128"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
       <c r="N15" s="61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" s="44"/>
-      <c r="P15" s="72"/>
+      <c r="P15" s="128"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37"/>
@@ -2798,7 +2799,7 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="44"/>
-      <c r="P16" s="72"/>
+      <c r="P16" s="128"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -2844,123 +2845,123 @@
         <v>6</v>
       </c>
       <c r="O17" s="44"/>
-      <c r="P17" s="72"/>
+      <c r="P17" s="128"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
       <c r="N18" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="44"/>
-      <c r="P18" s="72"/>
+      <c r="P18" s="128"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="125"/>
-      <c r="B19" s="118" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
       <c r="N19" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="44"/>
-      <c r="P19" s="72"/>
+      <c r="P19" s="128"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="125"/>
-      <c r="B20" s="118" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124" t="s">
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="61" t="s">
         <v>5</v>
       </c>
       <c r="O20" s="44"/>
-      <c r="P20" s="72"/>
+      <c r="P20" s="128"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
-      <c r="B21" s="118" t="s">
+      <c r="A21" s="121"/>
+      <c r="B21" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="124" t="s">
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101" t="s">
         <v>51</v>
       </c>
       <c r="N21" s="61" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="44"/>
-      <c r="P21" s="72"/>
+      <c r="P21" s="128"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131" t="s">
+      <c r="A22" s="123"/>
+      <c r="B22" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
       <c r="N22" s="62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" s="46"/>
-      <c r="P22" s="73"/>
+      <c r="P22" s="129"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
@@ -3019,127 +3020,127 @@
       <c r="O24" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="68" t="s">
+      <c r="P24" s="124" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="96" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="79" t="s">
         <v>51</v>
       </c>
       <c r="N25" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="74" t="s">
+      <c r="O25" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="69"/>
+      <c r="P25" s="125"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
-      <c r="B26" s="84" t="s">
+      <c r="A26" s="134"/>
+      <c r="B26" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
       <c r="N26" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="75"/>
-      <c r="P26" s="69"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="125"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="134"/>
+      <c r="B27" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79" t="s">
         <v>53</v>
       </c>
       <c r="N27" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="69"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="125"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="134"/>
+      <c r="B28" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
       <c r="N28" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="75"/>
-      <c r="P28" s="69"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="125"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="135"/>
+      <c r="B29" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
       <c r="N29" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="76"/>
-      <c r="P29" s="69"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="125"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
@@ -3157,7 +3158,7 @@
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="44"/>
-      <c r="P30" s="69"/>
+      <c r="P30" s="125"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
@@ -3205,125 +3206,125 @@
       <c r="O31" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="69"/>
+      <c r="P31" s="125"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="96" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="79" t="s">
         <v>51</v>
       </c>
       <c r="N32" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="77" t="s">
+      <c r="O32" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="P32" s="69"/>
+      <c r="P32" s="125"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="134"/>
+      <c r="B33" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
       <c r="N33" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="75"/>
-      <c r="P33" s="69"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="125"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
-      <c r="B34" s="84" t="s">
+      <c r="A34" s="134"/>
+      <c r="B34" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
       <c r="N34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="69"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="125"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="134"/>
+      <c r="B35" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96" t="s">
+      <c r="C35" s="74"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79" t="s">
         <v>53</v>
       </c>
       <c r="N35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="75"/>
-      <c r="P35" s="69"/>
+      <c r="O35" s="139"/>
+      <c r="P35" s="125"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="135"/>
+      <c r="B36" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
       <c r="N36" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O36" s="76"/>
-      <c r="P36" s="69"/>
+      <c r="O36" s="140"/>
+      <c r="P36" s="125"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
@@ -3344,7 +3345,7 @@
       <c r="M37" s="38"/>
       <c r="N37" s="38"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="69"/>
+      <c r="P37" s="125"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
       <c r="S37" s="23"/>
@@ -3395,140 +3396,140 @@
       <c r="O38" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="P38" s="69"/>
+      <c r="P38" s="125"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="124"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O39" s="78" t="s">
+      <c r="O39" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="P39" s="69"/>
+      <c r="P39" s="125"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="118" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124" t="s">
+      <c r="C40" s="102"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101" t="s">
         <v>53</v>
       </c>
       <c r="N40" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O40" s="79"/>
-      <c r="P40" s="69"/>
+      <c r="O40" s="143"/>
+      <c r="P40" s="125"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
-      <c r="B41" s="118" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124" t="s">
+      <c r="C41" s="102"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101" t="s">
         <v>51</v>
       </c>
       <c r="N41" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="79"/>
-      <c r="P41" s="69"/>
+      <c r="O41" s="143"/>
+      <c r="P41" s="125"/>
       <c r="Q41" s="48"/>
       <c r="R41" s="48"/>
       <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
-      <c r="B42" s="118" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
       <c r="N42" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="79"/>
-      <c r="P42" s="69"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="125"/>
       <c r="Q42" s="48"/>
       <c r="R42" s="48"/>
       <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="143"/>
-      <c r="B43" s="144" t="s">
+      <c r="A43" s="122"/>
+      <c r="B43" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
       <c r="N43" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="80"/>
-      <c r="P43" s="69"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="125"/>
       <c r="Q43" s="48"/>
       <c r="R43" s="48"/>
       <c r="S43" s="23"/>
@@ -3549,7 +3550,7 @@
       <c r="M44" s="50"/>
       <c r="N44" s="50"/>
       <c r="O44" s="47"/>
-      <c r="P44" s="69"/>
+      <c r="P44" s="125"/>
       <c r="Q44" s="48"/>
       <c r="R44" s="48"/>
       <c r="S44" s="23"/>
@@ -3600,140 +3601,140 @@
       <c r="O45" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="P45" s="69"/>
+      <c r="P45" s="125"/>
       <c r="Q45" s="48"/>
       <c r="R45" s="48"/>
       <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="138" t="s">
+      <c r="A46" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="139" t="s">
+      <c r="B46" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="141"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="124"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="101"/>
       <c r="N46" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O46" s="81" t="s">
+      <c r="O46" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="P46" s="69"/>
+      <c r="P46" s="125"/>
       <c r="Q46" s="48"/>
       <c r="R46" s="48"/>
       <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="125"/>
-      <c r="B47" s="118" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124" t="s">
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101" t="s">
         <v>53</v>
       </c>
       <c r="N47" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O47" s="79"/>
-      <c r="P47" s="69"/>
+      <c r="O47" s="143"/>
+      <c r="P47" s="125"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="48"/>
       <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="125"/>
-      <c r="B48" s="118" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="126"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
       <c r="N48" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="79"/>
-      <c r="P48" s="69"/>
+      <c r="O48" s="143"/>
+      <c r="P48" s="125"/>
       <c r="Q48" s="48"/>
       <c r="R48" s="48"/>
       <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
-      <c r="B49" s="118" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="126"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124" t="s">
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="101"/>
+      <c r="M49" s="101" t="s">
         <v>51</v>
       </c>
       <c r="N49" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="79"/>
-      <c r="P49" s="69"/>
+      <c r="O49" s="143"/>
+      <c r="P49" s="125"/>
       <c r="Q49" s="48"/>
       <c r="R49" s="48"/>
       <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="130"/>
-      <c r="B50" s="131" t="s">
+      <c r="A50" s="123"/>
+      <c r="B50" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="135"/>
-      <c r="I50" s="135"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="137"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="112"/>
       <c r="N50" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="O50" s="82"/>
-      <c r="P50" s="70"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="126"/>
       <c r="Q50" s="48"/>
       <c r="R50" s="48"/>
       <c r="S50" s="23"/>
@@ -23930,7 +23931,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Feuille 4'!$A$1:$A$4</xm:f>
           </x14:formula1>
@@ -23943,7 +23944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24173,7 +24174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/Rational_Level_Design.xlsx
+++ b/Rational_Level_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\JV\DISTANCE PROJECT\ExpressivePlatformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17732A-8024-4BA6-BBE4-40D90D4454ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351ED301-138A-45DB-9A09-27B73071D70C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LD" sheetId="1" r:id="rId1"/>
@@ -2364,8 +2364,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2686,7 @@
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
       <c r="N11" s="61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="128"/>
@@ -2708,7 +2708,7 @@
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="128"/>
@@ -2732,7 +2732,7 @@
         <v>55</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13" s="44"/>
       <c r="P13" s="128"/>
@@ -2756,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="44"/>
       <c r="P14" s="128"/>
@@ -2778,7 +2778,7 @@
       <c r="L15" s="79"/>
       <c r="M15" s="79"/>
       <c r="N15" s="61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="128"/>

--- a/Rational_Level_Design.xlsx
+++ b/Rational_Level_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\JV\DISTANCE PROJECT\ExpressivePlatformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351ED301-138A-45DB-9A09-27B73071D70C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0717F-E0D0-4732-8A29-6D96E72FD399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2364,8 +2364,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Rational_Level_Design.xlsx
+++ b/Rational_Level_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\JV\DISTANCE PROJECT\ExpressivePlatformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0717F-E0D0-4732-8A29-6D96E72FD399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B4653-E967-441F-AAA3-CF1B1D69C85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2364,8 +2364,8 @@
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2568,7 +2568,7 @@
         <v>51</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -2686,7 +2686,7 @@
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
       <c r="N11" s="61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="44"/>
       <c r="P11" s="128"/>
@@ -2708,7 +2708,7 @@
       <c r="L12" s="79"/>
       <c r="M12" s="79"/>
       <c r="N12" s="61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="44"/>
       <c r="P12" s="128"/>
@@ -2732,7 +2732,7 @@
         <v>55</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="44"/>
       <c r="P13" s="128"/>
@@ -2756,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="44"/>
       <c r="P14" s="128"/>
@@ -2778,7 +2778,7 @@
       <c r="L15" s="79"/>
       <c r="M15" s="79"/>
       <c r="N15" s="61" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="44"/>
       <c r="P15" s="128"/>
@@ -3045,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O25" s="138" t="s">
         <v>58</v>
@@ -3069,7 +3069,7 @@
       <c r="L26" s="79"/>
       <c r="M26" s="79"/>
       <c r="N26" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="139"/>
       <c r="P26" s="125"/>
@@ -3093,7 +3093,7 @@
         <v>53</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O27" s="139"/>
       <c r="P27" s="125"/>
@@ -3115,7 +3115,7 @@
       <c r="L28" s="79"/>
       <c r="M28" s="79"/>
       <c r="N28" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O28" s="139"/>
       <c r="P28" s="125"/>
@@ -3137,7 +3137,7 @@
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
       <c r="N29" s="61" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O29" s="140"/>
       <c r="P29" s="125"/>
